--- a/output/frat/depth_1/fRAT_check_3.xlsx
+++ b/output/frat/depth_1/fRAT_check_3.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rejna/projects/github.com/r_m_thesis/output/frat/depth_1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE1C86D-D772-EF4E-A8EC-6512B1393AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-180" yWindow="500" windowWidth="13360" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -499,8 +505,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,6 +569,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -609,7 +623,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,9 +655,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -675,6 +707,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -850,14 +900,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,7 +941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -906,7 +964,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -917,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -940,7 +998,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -963,7 +1021,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -986,7 +1044,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -997,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1020,7 +1078,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1031,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1042,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1053,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1076,7 +1134,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1099,7 +1157,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1110,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1133,7 +1191,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1156,7 +1214,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1179,7 +1237,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1190,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1213,7 +1271,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1224,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1247,7 +1305,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1258,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1269,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1280,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1291,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1302,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1313,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1336,7 +1394,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1356,7 +1414,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1367,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1378,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1389,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1412,7 +1470,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1432,7 +1490,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1443,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1454,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1465,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1488,7 +1546,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1499,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1510,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1521,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1532,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1543,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1554,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1565,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -1576,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1587,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -1598,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="8:8">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H49" t="s">
         <v>159</v>
       </c>
